--- a/cmd/timetable/data/Тренеры.xlsx
+++ b/cmd/timetable/data/Тренеры.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD4D3918-5DE2-466D-AB5E-26EC51FC1E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61A6239-50F6-4301-B0CE-B7A38F922362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10890" yWindow="945" windowWidth="30555" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -34,21 +34,9 @@
     <t>Имя</t>
   </si>
   <si>
-    <t>golden boy (10-11 12а 15)</t>
-  </si>
-  <si>
-    <t>profiball (10-11, 13в)</t>
-  </si>
-  <si>
-    <t>saf (09 12a 14в)</t>
-  </si>
-  <si>
     <t>4 АВАНГАРД ИЛЬИНСКИЙ 2015</t>
   </si>
   <si>
-    <t>авиатор (09 10-11 15)</t>
-  </si>
-  <si>
     <t>6 АВИАТОР-2 2010-2011</t>
   </si>
   <si>
@@ -67,33 +55,21 @@
     <t>11 АУФ 2007-2008</t>
   </si>
   <si>
-    <t>восток (13а 13в)</t>
-  </si>
-  <si>
     <t>13 ВОСТОК БЕЛЫЕ 2012А</t>
   </si>
   <si>
     <t>14 ВОСТОК СИНИЕ 2012А</t>
   </si>
   <si>
-    <t>гепард (13в 14в)</t>
-  </si>
-  <si>
     <t>16 ДИНАМИКА 2013A</t>
   </si>
   <si>
     <t>17 ДРУЖБА 2013A</t>
   </si>
   <si>
-    <t>цска (10-11 12в 16)</t>
-  </si>
-  <si>
     <t>19 ДЮФА ПФК ЦСКА 2013A</t>
   </si>
   <si>
-    <t>измайлово (10-11 13а)</t>
-  </si>
-  <si>
     <t>21 КОТЕЛЬНИКИ 2013A</t>
   </si>
   <si>
@@ -103,9 +79,6 @@
     <t>23 ЛЕГИОН-2 2012В</t>
   </si>
   <si>
-    <t>лидер 1420 (07 11в 14в 15)</t>
-  </si>
-  <si>
     <t>25 МЕГАФУТБОЛ 2013A</t>
   </si>
   <si>
@@ -115,18 +88,9 @@
     <t>27 МЕТЕОР ТАГАНКА 2009-2010</t>
   </si>
   <si>
-    <t>метрогородок (10-11 13а 12в 16)</t>
-  </si>
-  <si>
     <t>29 МУСТАНГ 2007-2008</t>
   </si>
   <si>
-    <t>некрасовка (07 09 10-11 13в)</t>
-  </si>
-  <si>
-    <t>олимп видное (13а 13в)</t>
-  </si>
-  <si>
     <t>32 ОЛИМПИЯ КИДС 2013A</t>
   </si>
   <si>
@@ -136,9 +100,6 @@
     <t>34 ПЕРСПЕКТИВА МОСКВА 2010-2011</t>
   </si>
   <si>
-    <t>ротор (13в 14в 15)</t>
-  </si>
-  <si>
     <t>36 СПАРТАК ГЕРАКЛИОН 2011В</t>
   </si>
   <si>
@@ -157,10 +118,130 @@
     <t>41 ЧЕМПИОНИКА 2013В</t>
   </si>
   <si>
-    <t>шанс (09 10-11 15)</t>
-  </si>
-  <si>
-    <t>юниор юг (11в 13в)</t>
+    <t>golden boy (12а)</t>
+  </si>
+  <si>
+    <t>golden boy (15)</t>
+  </si>
+  <si>
+    <t>profiball (10-11)</t>
+  </si>
+  <si>
+    <t>profiball (13в)</t>
+  </si>
+  <si>
+    <t>saf (09)</t>
+  </si>
+  <si>
+    <t>saf (12a)</t>
+  </si>
+  <si>
+    <t>saf (14в)</t>
+  </si>
+  <si>
+    <t>авиатор (09)</t>
+  </si>
+  <si>
+    <t>авиатор (15)</t>
+  </si>
+  <si>
+    <t>авиатор (10-11)</t>
+  </si>
+  <si>
+    <t>восток (13а)</t>
+  </si>
+  <si>
+    <t>восток (13в)</t>
+  </si>
+  <si>
+    <t>гепард (13в)</t>
+  </si>
+  <si>
+    <t>гепард (14в)</t>
+  </si>
+  <si>
+    <t>цска (16)</t>
+  </si>
+  <si>
+    <t>цска (10-11)</t>
+  </si>
+  <si>
+    <t>цска (12в)</t>
+  </si>
+  <si>
+    <t>измайлово (10-11)</t>
+  </si>
+  <si>
+    <t>измайлово (13а)</t>
+  </si>
+  <si>
+    <t>лидер 1420 (07)</t>
+  </si>
+  <si>
+    <t>лидер 1420 (11в)</t>
+  </si>
+  <si>
+    <t>лидер 1420 (14в)</t>
+  </si>
+  <si>
+    <t>лидер 1420 (15)</t>
+  </si>
+  <si>
+    <t>метрогородок (10-11)</t>
+  </si>
+  <si>
+    <t>метрогородок (16)</t>
+  </si>
+  <si>
+    <t>метрогородок (12в)</t>
+  </si>
+  <si>
+    <t>метрогородок (13а)</t>
+  </si>
+  <si>
+    <t>некрасовка (10-11)</t>
+  </si>
+  <si>
+    <t>некрасовка (13в)</t>
+  </si>
+  <si>
+    <t>некрасовка (07)</t>
+  </si>
+  <si>
+    <t>некрасовка (09)</t>
+  </si>
+  <si>
+    <t>олимп видное (13в)</t>
+  </si>
+  <si>
+    <t>олимп видное (13а)</t>
+  </si>
+  <si>
+    <t>ротор (13в)</t>
+  </si>
+  <si>
+    <t>ротор (14в)</t>
+  </si>
+  <si>
+    <t>ротор (15)</t>
+  </si>
+  <si>
+    <t>шанс (09)</t>
+  </si>
+  <si>
+    <t>шанс (10-11)</t>
+  </si>
+  <si>
+    <t>шанс (15)</t>
+  </si>
+  <si>
+    <t>юниор юг (11в)</t>
+  </si>
+  <si>
+    <t>юниор юг (13в)</t>
+  </si>
+  <si>
+    <t>golden boy (10-11)</t>
   </si>
 </sst>
 </file>
@@ -199,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,15 +553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,348 +569,564 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/cmd/timetable/data/Тренеры.xlsx
+++ b/cmd/timetable/data/Тренеры.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61A6239-50F6-4301-B0CE-B7A38F922362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD4D3918-5DE2-466D-AB5E-26EC51FC1E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10890" yWindow="945" windowWidth="30555" windowHeight="18540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -34,9 +34,21 @@
     <t>Имя</t>
   </si>
   <si>
+    <t>golden boy (10-11 12а 15)</t>
+  </si>
+  <si>
+    <t>profiball (10-11, 13в)</t>
+  </si>
+  <si>
+    <t>saf (09 12a 14в)</t>
+  </si>
+  <si>
     <t>4 АВАНГАРД ИЛЬИНСКИЙ 2015</t>
   </si>
   <si>
+    <t>авиатор (09 10-11 15)</t>
+  </si>
+  <si>
     <t>6 АВИАТОР-2 2010-2011</t>
   </si>
   <si>
@@ -55,21 +67,33 @@
     <t>11 АУФ 2007-2008</t>
   </si>
   <si>
+    <t>восток (13а 13в)</t>
+  </si>
+  <si>
     <t>13 ВОСТОК БЕЛЫЕ 2012А</t>
   </si>
   <si>
     <t>14 ВОСТОК СИНИЕ 2012А</t>
   </si>
   <si>
+    <t>гепард (13в 14в)</t>
+  </si>
+  <si>
     <t>16 ДИНАМИКА 2013A</t>
   </si>
   <si>
     <t>17 ДРУЖБА 2013A</t>
   </si>
   <si>
+    <t>цска (10-11 12в 16)</t>
+  </si>
+  <si>
     <t>19 ДЮФА ПФК ЦСКА 2013A</t>
   </si>
   <si>
+    <t>измайлово (10-11 13а)</t>
+  </si>
+  <si>
     <t>21 КОТЕЛЬНИКИ 2013A</t>
   </si>
   <si>
@@ -79,6 +103,9 @@
     <t>23 ЛЕГИОН-2 2012В</t>
   </si>
   <si>
+    <t>лидер 1420 (07 11в 14в 15)</t>
+  </si>
+  <si>
     <t>25 МЕГАФУТБОЛ 2013A</t>
   </si>
   <si>
@@ -88,9 +115,18 @@
     <t>27 МЕТЕОР ТАГАНКА 2009-2010</t>
   </si>
   <si>
+    <t>метрогородок (10-11 13а 12в 16)</t>
+  </si>
+  <si>
     <t>29 МУСТАНГ 2007-2008</t>
   </si>
   <si>
+    <t>некрасовка (07 09 10-11 13в)</t>
+  </si>
+  <si>
+    <t>олимп видное (13а 13в)</t>
+  </si>
+  <si>
     <t>32 ОЛИМПИЯ КИДС 2013A</t>
   </si>
   <si>
@@ -100,6 +136,9 @@
     <t>34 ПЕРСПЕКТИВА МОСКВА 2010-2011</t>
   </si>
   <si>
+    <t>ротор (13в 14в 15)</t>
+  </si>
+  <si>
     <t>36 СПАРТАК ГЕРАКЛИОН 2011В</t>
   </si>
   <si>
@@ -118,130 +157,10 @@
     <t>41 ЧЕМПИОНИКА 2013В</t>
   </si>
   <si>
-    <t>golden boy (12а)</t>
-  </si>
-  <si>
-    <t>golden boy (15)</t>
-  </si>
-  <si>
-    <t>profiball (10-11)</t>
-  </si>
-  <si>
-    <t>profiball (13в)</t>
-  </si>
-  <si>
-    <t>saf (09)</t>
-  </si>
-  <si>
-    <t>saf (12a)</t>
-  </si>
-  <si>
-    <t>saf (14в)</t>
-  </si>
-  <si>
-    <t>авиатор (09)</t>
-  </si>
-  <si>
-    <t>авиатор (15)</t>
-  </si>
-  <si>
-    <t>авиатор (10-11)</t>
-  </si>
-  <si>
-    <t>восток (13а)</t>
-  </si>
-  <si>
-    <t>восток (13в)</t>
-  </si>
-  <si>
-    <t>гепард (13в)</t>
-  </si>
-  <si>
-    <t>гепард (14в)</t>
-  </si>
-  <si>
-    <t>цска (16)</t>
-  </si>
-  <si>
-    <t>цска (10-11)</t>
-  </si>
-  <si>
-    <t>цска (12в)</t>
-  </si>
-  <si>
-    <t>измайлово (10-11)</t>
-  </si>
-  <si>
-    <t>измайлово (13а)</t>
-  </si>
-  <si>
-    <t>лидер 1420 (07)</t>
-  </si>
-  <si>
-    <t>лидер 1420 (11в)</t>
-  </si>
-  <si>
-    <t>лидер 1420 (14в)</t>
-  </si>
-  <si>
-    <t>лидер 1420 (15)</t>
-  </si>
-  <si>
-    <t>метрогородок (10-11)</t>
-  </si>
-  <si>
-    <t>метрогородок (16)</t>
-  </si>
-  <si>
-    <t>метрогородок (12в)</t>
-  </si>
-  <si>
-    <t>метрогородок (13а)</t>
-  </si>
-  <si>
-    <t>некрасовка (10-11)</t>
-  </si>
-  <si>
-    <t>некрасовка (13в)</t>
-  </si>
-  <si>
-    <t>некрасовка (07)</t>
-  </si>
-  <si>
-    <t>некрасовка (09)</t>
-  </si>
-  <si>
-    <t>олимп видное (13в)</t>
-  </si>
-  <si>
-    <t>олимп видное (13а)</t>
-  </si>
-  <si>
-    <t>ротор (13в)</t>
-  </si>
-  <si>
-    <t>ротор (14в)</t>
-  </si>
-  <si>
-    <t>ротор (15)</t>
-  </si>
-  <si>
-    <t>шанс (09)</t>
-  </si>
-  <si>
-    <t>шанс (10-11)</t>
-  </si>
-  <si>
-    <t>шанс (15)</t>
-  </si>
-  <si>
-    <t>юниор юг (11в)</t>
-  </si>
-  <si>
-    <t>юниор юг (13в)</t>
-  </si>
-  <si>
-    <t>golden boy (10-11)</t>
+    <t>шанс (09 10-11 15)</t>
+  </si>
+  <si>
+    <t>юниор юг (11в 13в)</t>
   </si>
 </sst>
 </file>
@@ -280,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -553,15 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,564 +488,348 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
         <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
